--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa1-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,246 +534,246 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.37690429567373</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H2">
-        <v>5.37690429567373</v>
+        <v>29.608787</v>
       </c>
       <c r="I2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J2">
-        <v>0.008956296531785934</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>43.7420334958991</v>
+        <v>0.6105403333333334</v>
       </c>
       <c r="N2">
-        <v>43.7420334958991</v>
+        <v>1.831621</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01188380198875054</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01188380198875054</v>
       </c>
       <c r="Q2">
-        <v>235.196727805604</v>
+        <v>6.025786228191889</v>
       </c>
       <c r="R2">
-        <v>235.196727805604</v>
+        <v>54.232076053727</v>
       </c>
       <c r="S2">
-        <v>0.008956296531785934</v>
+        <v>0.0001863505057311408</v>
       </c>
       <c r="T2">
-        <v>0.008956296531785934</v>
+        <v>0.0001863505057311408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>243.653187613367</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H3">
-        <v>243.653187613367</v>
+        <v>29.608787</v>
       </c>
       <c r="I3">
-        <v>0.4058525276218909</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J3">
-        <v>0.4058525276218909</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>43.7420334958991</v>
+        <v>1.062512666666667</v>
       </c>
       <c r="N3">
-        <v>43.7420334958991</v>
+        <v>3.187538</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02068117281010531</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02068117281010532</v>
       </c>
       <c r="Q3">
-        <v>10657.88589396649</v>
+        <v>10.48657041071178</v>
       </c>
       <c r="R3">
-        <v>10657.88589396649</v>
+        <v>94.379133696406</v>
       </c>
       <c r="S3">
-        <v>0.4058525276218909</v>
+        <v>0.0003243025267439219</v>
       </c>
       <c r="T3">
-        <v>0.4058525276218909</v>
+        <v>0.0003243025267439219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.1864861794303</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H4">
-        <v>77.1864861794303</v>
+        <v>29.608787</v>
       </c>
       <c r="I4">
-        <v>0.1285693440788597</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J4">
-        <v>0.1285693440788597</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>43.7420334958991</v>
+        <v>2.133338666666666</v>
       </c>
       <c r="N4">
-        <v>43.7420334958991</v>
+        <v>6.400016</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04152415967541061</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04152415967541061</v>
       </c>
       <c r="Q4">
-        <v>3376.293863891393</v>
+        <v>21.05519006006578</v>
       </c>
       <c r="R4">
-        <v>3376.293863891393</v>
+        <v>189.496710540592</v>
       </c>
       <c r="S4">
-        <v>0.1285693440788597</v>
+        <v>0.0006511424679490967</v>
       </c>
       <c r="T4">
-        <v>0.1285693440788597</v>
+        <v>0.0006511424679490967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.2784374658949</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H5">
-        <v>79.2784374658949</v>
+        <v>29.608787</v>
       </c>
       <c r="I5">
-        <v>0.1320539022969971</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J5">
-        <v>0.1320539022969971</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>43.7420334958991</v>
+        <v>1.278161666666667</v>
       </c>
       <c r="N5">
-        <v>43.7420334958991</v>
+        <v>3.834485</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.02487865146164742</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02487865146164742</v>
       </c>
       <c r="Q5">
-        <v>3467.800067135717</v>
+        <v>12.61493884663278</v>
       </c>
       <c r="R5">
-        <v>3467.800067135717</v>
+        <v>113.534449619695</v>
       </c>
       <c r="S5">
-        <v>0.1320539022969971</v>
+        <v>0.0003901234037873956</v>
       </c>
       <c r="T5">
-        <v>0.1320539022969971</v>
+        <v>0.0003901234037873956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,114 +785,1602 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.847645656103</v>
+        <v>9.869595666666667</v>
       </c>
       <c r="H6">
-        <v>126.847645656103</v>
+        <v>29.608787</v>
       </c>
       <c r="I6">
-        <v>0.211289817780291</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="J6">
-        <v>0.211289817780291</v>
+        <v>0.01568105105651745</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.7420334958991</v>
+        <v>46.29128866666667</v>
       </c>
       <c r="N6">
-        <v>43.7420334958991</v>
+        <v>138.873866</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.9010322140640862</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.9010322140640862</v>
       </c>
       <c r="Q6">
-        <v>5548.573965165197</v>
+        <v>456.8763020289491</v>
       </c>
       <c r="R6">
-        <v>5548.573965165197</v>
+        <v>4111.886718260542</v>
       </c>
       <c r="S6">
-        <v>0.211289817780291</v>
+        <v>0.01412913215230589</v>
       </c>
       <c r="T6">
-        <v>0.211289817780291</v>
+        <v>0.01412913215230589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>244.4161783333334</v>
+      </c>
+      <c r="H7">
+        <v>733.2485350000001</v>
+      </c>
+      <c r="I7">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="J7">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.831621</v>
+      </c>
+      <c r="O7">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P7">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q7">
+        <v>149.2259349916928</v>
+      </c>
+      <c r="R7">
+        <v>1343.033414925235</v>
+      </c>
+      <c r="S7">
+        <v>0.00461488798321485</v>
+      </c>
+      <c r="T7">
+        <v>0.00461488798321485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>244.4161783333334</v>
+      </c>
+      <c r="H8">
+        <v>733.2485350000001</v>
+      </c>
+      <c r="I8">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="J8">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.187538</v>
+      </c>
+      <c r="O8">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P8">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q8">
+        <v>259.6952854174256</v>
+      </c>
+      <c r="R8">
+        <v>2337.25756875683</v>
+      </c>
+      <c r="S8">
+        <v>0.008031208864847419</v>
+      </c>
+      <c r="T8">
+        <v>0.008031208864847421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>244.4161783333334</v>
+      </c>
+      <c r="H9">
+        <v>733.2485350000001</v>
+      </c>
+      <c r="I9">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="J9">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N9">
+        <v>6.400016</v>
+      </c>
+      <c r="O9">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P9">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q9">
+        <v>521.4224839973956</v>
+      </c>
+      <c r="R9">
+        <v>4692.802355976561</v>
+      </c>
+      <c r="S9">
+        <v>0.01612525567832142</v>
+      </c>
+      <c r="T9">
+        <v>0.01612525567832143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>244.4161783333334</v>
+      </c>
+      <c r="H10">
+        <v>733.2485350000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="J10">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.834485</v>
+      </c>
+      <c r="O10">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P10">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q10">
+        <v>312.4033898588306</v>
+      </c>
+      <c r="R10">
+        <v>2811.630508729475</v>
+      </c>
+      <c r="S10">
+        <v>0.009661233818741755</v>
+      </c>
+      <c r="T10">
+        <v>0.009661233818741757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>244.4161783333334</v>
+      </c>
+      <c r="H11">
+        <v>733.2485350000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="J11">
+        <v>0.3883343047606652</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N11">
+        <v>138.873866</v>
+      </c>
+      <c r="O11">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P11">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q11">
+        <v>11314.33986603181</v>
+      </c>
+      <c r="R11">
+        <v>101829.0587942863</v>
+      </c>
+      <c r="S11">
+        <v>0.3499017184155397</v>
+      </c>
+      <c r="T11">
+        <v>0.3499017184155398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>91.68861033333333</v>
+      </c>
+      <c r="H12">
+        <v>275.065831</v>
+      </c>
+      <c r="I12">
+        <v>0.1456770701148412</v>
+      </c>
+      <c r="J12">
+        <v>0.1456770701148413</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N12">
+        <v>1.831621</v>
+      </c>
+      <c r="O12">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P12">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q12">
+        <v>55.97959471578344</v>
+      </c>
+      <c r="R12">
+        <v>503.816352442051</v>
+      </c>
+      <c r="S12">
+        <v>0.001731197455546102</v>
+      </c>
+      <c r="T12">
+        <v>0.001731197455546102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>91.68861033333333</v>
+      </c>
+      <c r="H13">
+        <v>275.065831</v>
+      </c>
+      <c r="I13">
+        <v>0.1456770701148412</v>
+      </c>
+      <c r="J13">
+        <v>0.1456770701148413</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.187538</v>
+      </c>
+      <c r="O13">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P13">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q13">
+        <v>97.42030986823089</v>
+      </c>
+      <c r="R13">
+        <v>876.782788814078</v>
+      </c>
+      <c r="S13">
+        <v>0.003012772661514859</v>
+      </c>
+      <c r="T13">
+        <v>0.003012772661514861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>91.68861033333333</v>
+      </c>
+      <c r="H14">
+        <v>275.065831</v>
+      </c>
+      <c r="I14">
+        <v>0.1456770701148412</v>
+      </c>
+      <c r="J14">
+        <v>0.1456770701148413</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N14">
+        <v>6.400016</v>
+      </c>
+      <c r="O14">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P14">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q14">
+        <v>195.6028577170329</v>
+      </c>
+      <c r="R14">
+        <v>1760.425719453296</v>
+      </c>
+      <c r="S14">
+        <v>0.006049117920494653</v>
+      </c>
+      <c r="T14">
+        <v>0.006049117920494655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>91.68861033333333</v>
+      </c>
+      <c r="H15">
+        <v>275.065831</v>
+      </c>
+      <c r="I15">
+        <v>0.1456770701148412</v>
+      </c>
+      <c r="J15">
+        <v>0.1456770701148413</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.834485</v>
+      </c>
+      <c r="O15">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P15">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q15">
+        <v>117.1928669980039</v>
+      </c>
+      <c r="R15">
+        <v>1054.735802982035</v>
+      </c>
+      <c r="S15">
+        <v>0.003624249053341108</v>
+      </c>
+      <c r="T15">
+        <v>0.003624249053341109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>91.68861033333333</v>
+      </c>
+      <c r="H16">
+        <v>275.065831</v>
+      </c>
+      <c r="I16">
+        <v>0.1456770701148412</v>
+      </c>
+      <c r="J16">
+        <v>0.1456770701148413</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N16">
+        <v>138.873866</v>
+      </c>
+      <c r="O16">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P16">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q16">
+        <v>4244.38392838585</v>
+      </c>
+      <c r="R16">
+        <v>38199.45535547264</v>
+      </c>
+      <c r="S16">
+        <v>0.1312597330239445</v>
+      </c>
+      <c r="T16">
+        <v>0.1312597330239446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>80.92074566666668</v>
+      </c>
+      <c r="H17">
+        <v>242.762237</v>
+      </c>
+      <c r="I17">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="J17">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.831621</v>
+      </c>
+      <c r="O17">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P17">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q17">
+        <v>49.40537903290856</v>
+      </c>
+      <c r="R17">
+        <v>444.648411296177</v>
+      </c>
+      <c r="S17">
+        <v>0.001527886489823884</v>
+      </c>
+      <c r="T17">
+        <v>0.001527886489823884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>80.92074566666668</v>
+      </c>
+      <c r="H18">
+        <v>242.762237</v>
+      </c>
+      <c r="I18">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="J18">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.187538</v>
+      </c>
+      <c r="O18">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P18">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q18">
+        <v>85.97931726694512</v>
+      </c>
+      <c r="R18">
+        <v>773.8138554025061</v>
+      </c>
+      <c r="S18">
+        <v>0.002658954142805877</v>
+      </c>
+      <c r="T18">
+        <v>0.002658954142805878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>80.92074566666668</v>
+      </c>
+      <c r="H19">
+        <v>242.762237</v>
+      </c>
+      <c r="I19">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="J19">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N19">
+        <v>6.400016</v>
+      </c>
+      <c r="O19">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P19">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q19">
+        <v>172.6313556661991</v>
+      </c>
+      <c r="R19">
+        <v>1553.682200995792</v>
+      </c>
+      <c r="S19">
+        <v>0.005338712528987544</v>
+      </c>
+      <c r="T19">
+        <v>0.005338712528987545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>80.92074566666668</v>
+      </c>
+      <c r="H20">
+        <v>242.762237</v>
+      </c>
+      <c r="I20">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="J20">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.834485</v>
+      </c>
+      <c r="O20">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P20">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q20">
+        <v>103.4297951492161</v>
+      </c>
+      <c r="R20">
+        <v>930.8681563429451</v>
+      </c>
+      <c r="S20">
+        <v>0.003198619052157808</v>
+      </c>
+      <c r="T20">
+        <v>0.003198619052157808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>80.92074566666668</v>
+      </c>
+      <c r="H21">
+        <v>242.762237</v>
+      </c>
+      <c r="I21">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="J21">
+        <v>0.1285688276588767</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N21">
+        <v>138.873866</v>
+      </c>
+      <c r="O21">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P21">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q21">
+        <v>3745.925596777583</v>
+      </c>
+      <c r="R21">
+        <v>33713.33037099824</v>
+      </c>
+      <c r="S21">
+        <v>0.1158446554451016</v>
+      </c>
+      <c r="T21">
+        <v>0.1158446554451016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>129.147616</v>
+      </c>
+      <c r="H22">
+        <v>387.442848</v>
+      </c>
+      <c r="I22">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J22">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.831621</v>
+      </c>
+      <c r="O22">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P22">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q22">
+        <v>78.84982852184534</v>
+      </c>
+      <c r="R22">
+        <v>709.6484566966079</v>
+      </c>
+      <c r="S22">
+        <v>0.002438471075046522</v>
+      </c>
+      <c r="T22">
+        <v>0.002438471075046523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>129.147616</v>
+      </c>
+      <c r="H23">
+        <v>387.442848</v>
+      </c>
+      <c r="I23">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J23">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.187538</v>
+      </c>
+      <c r="O23">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P23">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q23">
+        <v>137.2209778698027</v>
+      </c>
+      <c r="R23">
+        <v>1234.988800828224</v>
+      </c>
+      <c r="S23">
+        <v>0.004243628574695115</v>
+      </c>
+      <c r="T23">
+        <v>0.004243628574695115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>129.147616</v>
+      </c>
+      <c r="H24">
+        <v>387.442848</v>
+      </c>
+      <c r="I24">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J24">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N24">
+        <v>6.400016</v>
+      </c>
+      <c r="O24">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P24">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q24">
+        <v>275.5156029206186</v>
+      </c>
+      <c r="R24">
+        <v>2479.640426285568</v>
+      </c>
+      <c r="S24">
+        <v>0.008520460234860236</v>
+      </c>
+      <c r="T24">
+        <v>0.008520460234860238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>129.147616</v>
+      </c>
+      <c r="H25">
+        <v>387.442848</v>
+      </c>
+      <c r="I25">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J25">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.834485</v>
+      </c>
+      <c r="O25">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P25">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q25">
+        <v>165.0715321125867</v>
+      </c>
+      <c r="R25">
+        <v>1485.64378901328</v>
+      </c>
+      <c r="S25">
+        <v>0.005104921138270288</v>
+      </c>
+      <c r="T25">
+        <v>0.005104921138270289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>129.147616</v>
+      </c>
+      <c r="H26">
+        <v>387.442848</v>
+      </c>
+      <c r="I26">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="J26">
+        <v>0.2051928395773366</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N26">
+        <v>138.873866</v>
+      </c>
+      <c r="O26">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P26">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q26">
+        <v>5978.409572867818</v>
+      </c>
+      <c r="R26">
+        <v>53805.68615581036</v>
+      </c>
+      <c r="S26">
+        <v>0.1848853585544644</v>
+      </c>
+      <c r="T26">
+        <v>0.1848853585544644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H27">
+        <v>220.060691</v>
+      </c>
+      <c r="I27">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J27">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.6105403333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.831621</v>
+      </c>
+      <c r="O27">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="P27">
+        <v>0.01188380198875054</v>
+      </c>
+      <c r="Q27">
+        <v>44.78530921223456</v>
+      </c>
+      <c r="R27">
+        <v>403.067782910111</v>
+      </c>
+      <c r="S27">
+        <v>0.001385008479388038</v>
+      </c>
+      <c r="T27">
+        <v>0.001385008479388038</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H28">
+        <v>220.060691</v>
+      </c>
+      <c r="I28">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J28">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.062512666666667</v>
+      </c>
+      <c r="N28">
+        <v>3.187538</v>
+      </c>
+      <c r="O28">
+        <v>0.02068117281010531</v>
+      </c>
+      <c r="P28">
+        <v>0.02068117281010532</v>
+      </c>
+      <c r="Q28">
+        <v>77.93909054097311</v>
+      </c>
+      <c r="R28">
+        <v>701.4518148687581</v>
+      </c>
+      <c r="S28">
+        <v>0.00241030603949812</v>
+      </c>
+      <c r="T28">
+        <v>0.002410306039498121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H29">
+        <v>220.060691</v>
+      </c>
+      <c r="I29">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J29">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>2.133338666666666</v>
+      </c>
+      <c r="N29">
+        <v>6.400016</v>
+      </c>
+      <c r="O29">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="P29">
+        <v>0.04152415967541061</v>
+      </c>
+      <c r="Q29">
+        <v>156.4879937078951</v>
+      </c>
+      <c r="R29">
+        <v>1408.391943371056</v>
+      </c>
+      <c r="S29">
+        <v>0.004839470844797647</v>
+      </c>
+      <c r="T29">
+        <v>0.004839470844797648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H30">
+        <v>220.060691</v>
+      </c>
+      <c r="I30">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J30">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>1.278161666666667</v>
+      </c>
+      <c r="N30">
+        <v>3.834485</v>
+      </c>
+      <c r="O30">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="P30">
+        <v>0.02487865146164742</v>
+      </c>
+      <c r="Q30">
+        <v>93.75771319212612</v>
+      </c>
+      <c r="R30">
+        <v>843.819418729135</v>
+      </c>
+      <c r="S30">
+        <v>0.002899504995349059</v>
+      </c>
+      <c r="T30">
+        <v>0.00289950499534906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>68.00640903202169</v>
-      </c>
-      <c r="H7">
-        <v>68.00640903202169</v>
-      </c>
-      <c r="I7">
-        <v>0.1132781116901752</v>
-      </c>
-      <c r="J7">
-        <v>0.1132781116901752</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>43.7420334958991</v>
-      </c>
-      <c r="N7">
-        <v>43.7420334958991</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>2974.738621814508</v>
-      </c>
-      <c r="R7">
-        <v>2974.738621814508</v>
-      </c>
-      <c r="S7">
-        <v>0.1132781116901752</v>
-      </c>
-      <c r="T7">
-        <v>0.1132781116901752</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>73.35356366666667</v>
+      </c>
+      <c r="H31">
+        <v>220.060691</v>
+      </c>
+      <c r="I31">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="J31">
+        <v>0.1165459068317628</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>46.29128866666667</v>
+      </c>
+      <c r="N31">
+        <v>138.873866</v>
+      </c>
+      <c r="O31">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="P31">
+        <v>0.9010322140640862</v>
+      </c>
+      <c r="Q31">
+        <v>3395.630990422379</v>
+      </c>
+      <c r="R31">
+        <v>30560.67891380141</v>
+      </c>
+      <c r="S31">
+        <v>0.1050116164727299</v>
+      </c>
+      <c r="T31">
+        <v>0.10501161647273</v>
       </c>
     </row>
   </sheetData>
